--- a/FP2-G47-350-1201/FP-log-G47-6977-350-1201.xlsx
+++ b/FP2-G47-350-1201/FP-log-G47-6977-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jin-Desktop\Documents\Projects\ensc350-finalprojectpart2\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9213DCE-D3BD-4A8E-A763-A34DA0CC8B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89814CB8-4D39-433D-A1E6-8BF66E29151E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="150">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -466,6 +466,72 @@
   </si>
   <si>
     <t>Checked that all functional simulations on ModelSim are still correct and good. -DONE</t>
+  </si>
+  <si>
+    <t>Captured raw diagrams of functional waveforms from ModelSim for LogicUnit.vhd. - DONE</t>
+  </si>
+  <si>
+    <t>Captured VHDL interface diagrams of all entities except ArithUnit.vhd (waiting on feedback from team members). -DONE</t>
+  </si>
+  <si>
+    <t>Did not like an entity naming convenction so renamed it. Recompiled and recaptured VHDL interface, RTL and Post-Fit Diagrams. -DONE</t>
+  </si>
+  <si>
+    <t>Captured RTL and Post-Fit diagrams of LogicUnit and LogicGates. -DONE</t>
+  </si>
+  <si>
+    <t>Captured raw diagrams of timing waveforms from ModelSim for LogicUnit.vhd. -DONE</t>
+  </si>
+  <si>
+    <t>Exported transcript and summary files to Documentation folder for LogicUnit.vhd. -DONE</t>
+  </si>
+  <si>
+    <t>Pushed changes to GitHub. Communicated progress made. Retiring for the "night". -DONE</t>
+  </si>
+  <si>
+    <t>Started writing the report for LogicUnit and LogicGates. Too tired to continue-NOT DONE.</t>
+  </si>
+  <si>
+    <t>Read changes made by team members and verified that everything still works. -DONE</t>
+  </si>
+  <si>
+    <t>Discovered Quartus's Birds Eye View. Redid LogicUnit's RTL and PostFit diagrams. -DONE</t>
+  </si>
+  <si>
+    <t>Exported transcript and summary files to Documentation folder for ArithUnit.vhd. -DONE</t>
+  </si>
+  <si>
+    <t>Captured raw diagrams of RTL and Post-Fit diagrams of ArithUnit and Adder. -DONE</t>
+  </si>
+  <si>
+    <t>Captured raw diagrams of functional and timing waveforms from ModelSim for ArithUnit.vhd.  - DONE</t>
+  </si>
+  <si>
+    <t>Added more raw diagrams of functional waveforms from  ModelSim for ExecUnit.vhd. Taking a small break.  - DONE</t>
+  </si>
+  <si>
+    <t>Discovered wrong results while capturing timing waveforms for ExecUnit.vhd. Issue was .sdo and .vho files for ExecUnit were not updated. Fixed issue by recompiling on Quartus. -DONE</t>
+  </si>
+  <si>
+    <t>Verified that LogicUnit behaves as expected for Timing Simultion. -DONE</t>
+  </si>
+  <si>
+    <t>Verified that timing simulation for ArithUnit and ExecUnit are still good. Communicated issue and fix to team members. Pushed changes to Github. -DONE</t>
+  </si>
+  <si>
+    <t>Discovered that test bench vector is ArithUnit01.tvs with team member. Changed it and replaced transcript files as waveforms are still valid. -DONE</t>
+  </si>
+  <si>
+    <t>Captured raw diagrams of timing waveforms from ModelSim for ExecUnit.vhd. Fixed a timing waveform in ArithUnit.vhd. -DONE</t>
+  </si>
+  <si>
+    <t>Captured raw diagrams of RTL and Post-Fit diagrams of ShiftUnit, SLL64, SRL64 and SRA64. Exported summary files to Documentation for ShiftUnit.vhd.  -DONE</t>
+  </si>
+  <si>
+    <t>Started working on the report with feedback comments from part 1 in mind. Too tired to continue. -NOT DONE</t>
+  </si>
+  <si>
+    <t>Combined summary files into one .txt file. Prepare a folder for a quick and easy submission. Updated team members on progress and pushed to Github. Retiring for the "night". -DONE</t>
   </si>
 </sst>
 </file>
@@ -896,6 +962,9 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -910,9 +979,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,10 +1032,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1271,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E6E40-83BD-4CBB-97D3-102021CD8368}">
   <dimension ref="A1:I782"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G65" sqref="A65:G74"/>
     </sheetView>
   </sheetViews>
@@ -1292,42 +1354,42 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <v>301226977</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3708,8 +3770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5014613-EBCB-42CE-9E22-81901AAC5CBA}">
   <dimension ref="A1:I782"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3729,42 +3791,42 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <v>301226977</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4929,13 +4991,19 @@
       <c r="C55" s="22">
         <v>43937</v>
       </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="23"/>
+      <c r="D55" s="20">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="E55" s="23">
+        <v>0.3125</v>
+      </c>
       <c r="F55" s="34"/>
-      <c r="G55" s="17"/>
+      <c r="G55" s="17" t="s">
+        <v>128</v>
+      </c>
       <c r="H55" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666652</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4946,13 +5014,19 @@
       <c r="C56" s="22">
         <v>43937</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="23"/>
+      <c r="D56" s="20">
+        <v>0.3125</v>
+      </c>
+      <c r="E56" s="23">
+        <v>0.31944444444444448</v>
+      </c>
       <c r="F56" s="34"/>
-      <c r="G56" s="17"/>
+      <c r="G56" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="H56" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666741</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4963,13 +5037,19 @@
       <c r="C57" s="22">
         <v>43937</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="23"/>
+      <c r="D57" s="20">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="E57" s="23">
+        <v>0.3298611111111111</v>
+      </c>
       <c r="F57" s="34"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="H57" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999911</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4980,253 +5060,443 @@
       <c r="C58" s="22">
         <v>43937</v>
       </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="20">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.34722222222222227</v>
+      </c>
       <c r="F58" s="34"/>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17" t="s">
+        <v>130</v>
+      </c>
       <c r="H58" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666785</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="23"/>
+      <c r="B59" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C59" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D59" s="20">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0.3576388888888889</v>
+      </c>
       <c r="F59" s="34"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="H59" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999911</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="23"/>
+      <c r="B60" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C60" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D60" s="20">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="F60" s="34"/>
-      <c r="G60" s="17"/>
+      <c r="G60" s="17" t="s">
+        <v>133</v>
+      </c>
       <c r="H60" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333037E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="23"/>
+      <c r="B61" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C61" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D61" s="20">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="E61" s="23">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="F61" s="34"/>
-      <c r="G61" s="17"/>
+      <c r="G61" s="17" t="s">
+        <v>135</v>
+      </c>
       <c r="H61" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666741</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="23"/>
+      <c r="B62" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C62" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D62" s="20">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E62" s="23">
+        <v>0.37152777777777773</v>
+      </c>
       <c r="F62" s="34"/>
-      <c r="G62" s="17"/>
+      <c r="G62" s="17" t="s">
+        <v>134</v>
+      </c>
       <c r="H62" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333331705E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="23"/>
+      <c r="B63" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C63" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="F63" s="34"/>
-      <c r="G63" s="17"/>
+      <c r="G63" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="H63" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666874</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="23"/>
+      <c r="B64" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C64" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="E64" s="23">
+        <v>0.92361111111111116</v>
+      </c>
       <c r="F64" s="34"/>
-      <c r="G64" s="17"/>
+      <c r="G64" s="17" t="s">
+        <v>137</v>
+      </c>
       <c r="H64" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="23"/>
+      <c r="B65" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C65" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D65" s="20">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="E65" s="23">
+        <v>0.93402777777777779</v>
+      </c>
       <c r="F65" s="34"/>
-      <c r="G65" s="17"/>
+      <c r="G65" s="17" t="s">
+        <v>138</v>
+      </c>
       <c r="H65" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999911</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="33"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="23"/>
+      <c r="B66" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C66" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D66" s="20">
+        <v>0.93402777777777779</v>
+      </c>
+      <c r="E66" s="23">
+        <v>0.96180555555555547</v>
+      </c>
       <c r="F66" s="34"/>
-      <c r="G66" s="17"/>
+      <c r="G66" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="H66" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6666666666666643</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="23"/>
+      <c r="B67" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C67" s="22">
+        <v>43937</v>
+      </c>
+      <c r="D67" s="20">
+        <v>0.96180555555555547</v>
+      </c>
+      <c r="E67" s="23">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="F67" s="34"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="H67" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.90000000000000213</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="23"/>
+      <c r="B68" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C68" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D68" s="20">
+        <v>0</v>
+      </c>
+      <c r="E68" s="23">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="F68" s="34"/>
-      <c r="G68" s="17"/>
+      <c r="G68" s="17" t="s">
+        <v>141</v>
+      </c>
       <c r="H68" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="23"/>
+      <c r="B69" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C69" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D69" s="20">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E69" s="23">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F69" s="34"/>
-      <c r="G69" s="17"/>
+      <c r="G69" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="H69" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4999999999999996</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="23"/>
+      <c r="B70" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C70" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D70" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E70" s="23">
+        <v>0.18055555555555555</v>
+      </c>
       <c r="F70" s="34"/>
-      <c r="G70" s="17"/>
+      <c r="G70" s="17" t="s">
+        <v>144</v>
+      </c>
       <c r="H70" s="27">
-        <f t="shared" ref="H70:H129" si="1">(E70-D70)*24</f>
-        <v>0</v>
+        <f t="shared" ref="H70:H78" si="1">(E70-D70)*24</f>
+        <v>0.33333333333333348</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="23"/>
+      <c r="B71" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C71" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D71" s="20">
+        <v>0.18055555555555555</v>
+      </c>
+      <c r="E71" s="23">
+        <v>0.1875</v>
+      </c>
       <c r="F71" s="34"/>
-      <c r="G71" s="17"/>
+      <c r="G71" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="H71" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666674</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="23"/>
+      <c r="B72" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C72" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D72" s="20">
+        <v>0.1875</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="F72" s="34"/>
-      <c r="G72" s="17"/>
+      <c r="G72" s="17" t="s">
+        <v>145</v>
+      </c>
       <c r="H72" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="23"/>
+      <c r="B73" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C73" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D73" s="20">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E73" s="23">
+        <v>0.25</v>
+      </c>
       <c r="F73" s="34"/>
-      <c r="G73" s="17"/>
+      <c r="G73" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="H73" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="23"/>
+      <c r="B74" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C74" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E74" s="23">
+        <v>0.30902777777777779</v>
+      </c>
       <c r="F74" s="34"/>
-      <c r="G74" s="17"/>
+      <c r="G74" s="17" t="s">
+        <v>147</v>
+      </c>
       <c r="H74" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.416666666666667</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="23"/>
+      <c r="B75" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C75" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="E75" s="23">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="F75" s="34"/>
-      <c r="G75" s="17"/>
+      <c r="G75" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="H75" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0833333333333335</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="33"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="23"/>
+      <c r="B76" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C76" s="22">
+        <v>43938</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="E76" s="23">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="F76" s="34"/>
-      <c r="G76" s="17"/>
+      <c r="G76" s="17" t="s">
+        <v>149</v>
+      </c>
       <c r="H76" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24999999999999911</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="22"/>
+      <c r="B77" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C77" s="22">
+        <v>43938</v>
+      </c>
       <c r="D77" s="20"/>
       <c r="E77" s="23"/>
       <c r="F77" s="34"/>
@@ -5238,8 +5508,12 @@
     </row>
     <row r="78" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="35"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="24"/>
+      <c r="B78" s="14">
+        <v>6977</v>
+      </c>
+      <c r="C78" s="22">
+        <v>43938</v>
+      </c>
       <c r="D78" s="25"/>
       <c r="E78" s="26"/>
       <c r="F78" s="36"/>
@@ -5250,10 +5524,10 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F79" s="41"/>
+      <c r="F79" s="37"/>
       <c r="H79" s="29">
         <f>SUM(H6:H78)</f>
-        <v>18.649999999999995</v>
+        <v>29.883333333333333</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5968,7 +6242,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6002,42 +6276,42 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="40">
         <v>301226977</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7735,7 +8009,7 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:H78">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
